--- a/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Warning_Score.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/06_Inst_Warning_Score.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valentina.dallolio\Desktop\app-catalog-main\apps\predictive-app\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Warning_Score" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Warning_Score</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>04_LOW</t>
+  </si>
+  <si>
+    <t>05_NONE</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>#D7F1FD</t>
+  </si>
+  <si>
+    <t>IsNone</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>true/false</t>
   </si>
 </sst>
 </file>
@@ -212,12 +230,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +318,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -594,22 +664,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,8 +689,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -642,8 +713,11 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -665,8 +739,11 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -688,8 +765,11 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -711,8 +791,11 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -733,6 +816,35 @@
       </c>
       <c r="G6" t="s">
         <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -745,9 +857,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K5"/>
+  <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -867,6 +981,32 @@
       </c>
       <c r="K5"/>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
